--- a/similarities/split_global/harmonic_similarity_timestamps_255.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_255.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>isophonics_224</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['Db/5', 'Db', 'Ab/3']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['D/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:03:55.320000', '0:04:02.100000')]</t>
+          <t>('0:01:40.436000', '0:01:44.002000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:22.180000', '0:00:25.400000')]</t>
+          <t>('0:01:32.073492', '0:01:35.022426')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=235.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=100.436</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=22.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=92.073492</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:46.900000', '0:00:59.100000')]</t>
+          <t>('0:00:00.780000', '0:00:23.840000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.220000', '0:00:08.880000')]</t>
+          <t>('0:00:12.921927', '0:00:21.908049')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=46.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=0.78</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=12.921927</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:07.800000', '0:00:13.900000')]</t>
+          <t>('0:00:19.140000', '0:00:22.240000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:20.580000', '0:00:32.500000')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=7.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=20.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>isophonics_182</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G', 'C/5', 'G', 'C/5']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:59.182426', '0:01:06.310952')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:43.520929', '0:01:48.664149')]</t>
+          <t>('0:02:23.580000', '0:02:29.120000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=103.520929']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'A:min/C', 'D:7', 'G:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C', 'D:min', 'G:7', 'C']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:20.360000', '0:00:26.840000')]</t>
+          <t>('0:00:03.389127', '0:00:22.035759')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:42.694000', '0:01:52.530000')]</t>
+          <t>('0:01:02.200000', '0:01:04.400000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=20.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=3.389127</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=102.694']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>isophonics_93</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['G', 'A:min', 'G']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min']]</t>
+          <t>['B', 'C#:min', 'B']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
+          <t>('0:00:05.544331', '0:00:12.916666')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:14.920000', '0:00:20.760000')]</t>
+          <t>('0:00:05.191000', '0:00:08.545000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-93#t=5.544331</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=5.191</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_173</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A', 'F#:min', 'B:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'D:min', 'G:min/A#']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:17.670317', '0:00:31.045011')]</t>
+          <t>('0:00:00.980000', '0:00:06.140000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:07.580000', '0:00:16.020000')]</t>
+          <t>('0:00:00.780000', '0:00:05.260000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-173#t=17.670317']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.98</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=7.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=0.78</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:11.240000', '0:00:17.760000')]</t>
+          <t>('0:00:41.700000', '0:00:57.940000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:47.020000', '0:00:51.380000')]</t>
+          <t>('0:01:14.400000', '0:01:26.060000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=41.7</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_207</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['E', 'B:7', 'E', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:43.880000', '0:00:48.020000')]</t>
+          <t>('0:01:01.683832', '0:01:11.056785')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.980000')]</t>
+          <t>('0:00:06.980000', '0:00:21.920000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=43.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=6.98</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_75</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Eb:min7', 'Ab:7', 'Db:maj6', 'Db:7/3']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb:maj6', 'Eb:7']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:35.450000', '0:00:37.750000')]</t>
+          <t>('0:01:14.879000', '0:01:25.949000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:20.840000', '0:00:26.570000')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=35.45']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=20.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>schubert-winterreise_20</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_44</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:min7', 'C:7']]</t>
+          <t>['G:7', 'C:maj/G', 'G:7', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:min7', 'Ab:7']]</t>
+          <t>['F:7', 'A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:38.371000', '0:00:43.027000')]</t>
+          <t>('0:01:26.660000', '0:01:36.120000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:11.340000', '0:00:15.200000')]</t>
+          <t>('0:01:51.460000', '0:02:04.800000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=38.371']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=86.66</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-44#t=11.34']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=111.46</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>isophonics_117</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['A', 'D/5', 'E/4']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C', 'F', 'G']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:04:22.920000', '0:04:29.360000')]</t>
+          <t>('0:00:04.875000', '0:00:07.448000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:07.160000', '0:00:15.080000')]</t>
+          <t>('0:00:01.110561', '0:00:06.213665')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=4.875</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=7.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-117#t=1.110561</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['E:min', 'D', 'A']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj'], ['F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
+          <t>['F:7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:09.408834', '0:00:16.560579'), ('0:00:16.560579', '0:00:21.866339')]</t>
+          <t>('0:00:45.970000', '0:00:52.390000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:24.040000'), ('0:01:40.560000', '0:01:46.760000')]</t>
+          <t>('0:00:43.610000', '0:00:45.410000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=9.408834', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=16.560579']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=45.97</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=100.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=43.61</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_52</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_140</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
+          <t>['F:maj', 'D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
+          <t>['D#/G', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:43', '0:02:02.840000')]</t>
+          <t>('0:01:38.560000', '0:01:51.740000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:31', '0:00:43.660000')]</t>
+          <t>('0:01:02.380000', '0:01:07.200000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=103.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=98.56</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-140#t=31.0']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=62.38</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>isophonics_218</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab:7', 'Eb']]</t>
+          <t>['G', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb:7', 'Bb']]</t>
+          <t>['G:maj', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.700000', '0:00:13.300000')]</t>
+          <t>('0:00:44.339000', '0:00:48.135000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00.459543', '0:00:22.338129')]</t>
+          <t>('0:01:04.760000', '0:01:08.420000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=0.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=44.339</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=0.459543']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=64.76</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
